--- a/Akan/Ananse9/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse9/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DC9F2E-4B43-439E-A42A-5FB7E77839C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B500EA8-FB3F-462E-9E5E-EEC11A599506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30825" yWindow="1185" windowWidth="25935" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,12 +274,6 @@
     <t xml:space="preserve">The Spider set out and went to a certain village. </t>
   </si>
   <si>
-    <t xml:space="preserve">He told the head-man the following story. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sky-god has sent me; he says, I must take this single grain of corn and go with it somewhere, and when I come (anywhere), I must let this grain of corn sleep with the fowls. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The head-man said, " E! when fowls and corn sleep together, will it be well? " </t>
   </si>
   <si>
@@ -367,9 +361,6 @@
     <t xml:space="preserve">The head-man said, " I am not able to have any dispute with you about this matter, so take away the cow that killed it." </t>
   </si>
   <si>
-    <t>Ananse took the cow, and set off, and came to another village. He took the cow and tied it up there, and went to sleep. As he was sleeping there, they came</t>
-  </si>
-  <si>
     <t xml:space="preserve">and told the head-man that one of his slaves had died. </t>
   </si>
   <si>
@@ -470,6 +461,15 @@
   </si>
   <si>
     <t>That is why poverty will never pass Ananse by.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He told the head-man the following story: The Sky-god has sent me; he says, I must take this single grain of corn and go with it somewhere, and when I come (anywhere), I must let this grain of corn sleep with the fowls. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse took the cow, and set off, and came to another village. </t>
+  </si>
+  <si>
+    <t>He took the cow and tied it up there, and went to sleep.</t>
   </si>
 </sst>
 </file>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="107.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,15 +920,15 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -936,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -944,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -952,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -960,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -968,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -976,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -984,15 +984,15 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1000,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1008,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1016,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1024,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1032,7 +1032,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1040,7 +1040,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1056,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1064,7 +1064,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1072,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1080,7 +1080,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1088,7 +1088,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1096,7 +1096,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1104,7 +1104,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1112,7 +1112,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1120,7 +1120,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1128,7 +1128,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1136,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1144,7 +1144,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1152,7 +1152,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1160,15 +1160,15 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1176,7 +1176,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1184,7 +1184,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1192,7 +1192,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1200,7 +1200,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1208,7 +1208,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1216,7 +1216,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1224,7 +1224,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1232,7 +1232,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -1240,7 +1240,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1248,7 +1248,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1256,7 +1256,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1264,7 +1264,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1272,7 +1272,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1280,7 +1280,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1288,7 +1288,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1296,7 +1296,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1304,7 +1304,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1312,7 +1312,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1320,7 +1320,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1328,7 +1328,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1336,7 +1336,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1344,7 +1344,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1352,7 +1352,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -1360,7 +1360,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1368,7 +1368,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -1376,7 +1376,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1384,7 +1384,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1392,7 +1392,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1400,7 +1400,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1408,7 +1408,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1416,7 +1416,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1424,7 +1424,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1432,7 +1432,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1440,7 +1440,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
